--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H2">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J2">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N2">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q2">
-        <v>321.8709989628871</v>
+        <v>722.0555216740395</v>
       </c>
       <c r="R2">
-        <v>2896.838990665984</v>
+        <v>6498.499695066355</v>
       </c>
       <c r="S2">
-        <v>0.1676347466137618</v>
+        <v>0.2083598772272402</v>
       </c>
       <c r="T2">
-        <v>0.1676347466137618</v>
+        <v>0.2083598772272402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H3">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J3">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
         <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q3">
-        <v>5.858789622099555</v>
+        <v>9.490178506526888</v>
       </c>
       <c r="R3">
-        <v>52.729106598896</v>
+        <v>85.41160655874201</v>
       </c>
       <c r="S3">
-        <v>0.003051336457551555</v>
+        <v>0.002738532383077862</v>
       </c>
       <c r="T3">
-        <v>0.003051336457551556</v>
+        <v>0.002738532383077863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H4">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J4">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N4">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q4">
-        <v>6.661551213327112</v>
+        <v>1.835055302059666</v>
       </c>
       <c r="R4">
-        <v>59.95396091994401</v>
+        <v>16.515497718537</v>
       </c>
       <c r="S4">
-        <v>0.003469425494371577</v>
+        <v>0.0005295325441953409</v>
       </c>
       <c r="T4">
-        <v>0.003469425494371578</v>
+        <v>0.0005295325441953411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H5">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J5">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N5">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q5">
-        <v>9.180510877072889</v>
+        <v>6.544070830988445</v>
       </c>
       <c r="R5">
-        <v>82.624597893656</v>
+        <v>58.896637478896</v>
       </c>
       <c r="S5">
-        <v>0.0047813335765626</v>
+        <v>0.001888389125187878</v>
       </c>
       <c r="T5">
-        <v>0.004781333576562601</v>
+        <v>0.001888389125187878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H6">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J6">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N6">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q6">
-        <v>8.753712658923554</v>
+        <v>33.40222281909155</v>
       </c>
       <c r="R6">
-        <v>78.78341393031198</v>
+        <v>300.620005371824</v>
       </c>
       <c r="S6">
-        <v>0.004559051322537849</v>
+        <v>0.009638708986764976</v>
       </c>
       <c r="T6">
-        <v>0.00455905132253785</v>
+        <v>0.009638708986764976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.936685333333333</v>
+        <v>14.47581233333333</v>
       </c>
       <c r="H7">
-        <v>26.810056</v>
+        <v>43.427437</v>
       </c>
       <c r="I7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="J7">
-        <v>0.1887330597209498</v>
+        <v>0.2264097534340379</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N7">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q7">
-        <v>10.05574302856355</v>
+        <v>11.27896428709844</v>
       </c>
       <c r="R7">
-        <v>90.50168725707199</v>
+        <v>101.510678583886</v>
       </c>
       <c r="S7">
-        <v>0.005237166256164384</v>
+        <v>0.003254713167571574</v>
       </c>
       <c r="T7">
-        <v>0.005237166256164385</v>
+        <v>0.003254713167571575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J8">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N8">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q8">
-        <v>423.2550134574436</v>
+        <v>586.171067850319</v>
       </c>
       <c r="R8">
-        <v>3809.295121116992</v>
+        <v>5275.539610652871</v>
       </c>
       <c r="S8">
-        <v>0.2204369053520226</v>
+        <v>0.1691483938081267</v>
       </c>
       <c r="T8">
-        <v>0.2204369053520226</v>
+        <v>0.1691483938081267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J9">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
         <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q9">
-        <v>7.704210967549777</v>
+        <v>7.704210967549779</v>
       </c>
       <c r="R9">
-        <v>69.337898707948</v>
+        <v>69.33789870794801</v>
       </c>
       <c r="S9">
-        <v>0.0040124567219959</v>
+        <v>0.002223164844179522</v>
       </c>
       <c r="T9">
-        <v>0.004012456721995901</v>
+        <v>0.002223164844179522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J10">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N10">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q10">
-        <v>8.759829116413558</v>
+        <v>1.489714147575333</v>
       </c>
       <c r="R10">
-        <v>78.83846204772202</v>
+        <v>13.407427328178</v>
       </c>
       <c r="S10">
-        <v>0.00456223685588759</v>
+        <v>0.0004298792095278829</v>
       </c>
       <c r="T10">
-        <v>0.004562236855887592</v>
+        <v>0.000429879209527883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J11">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N11">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q11">
-        <v>12.07221920378645</v>
+        <v>5.312534662424889</v>
       </c>
       <c r="R11">
-        <v>108.649972834078</v>
+        <v>47.812811961824</v>
       </c>
       <c r="S11">
-        <v>0.006287374177273651</v>
+        <v>0.001533011017576581</v>
       </c>
       <c r="T11">
-        <v>0.006287374177273651</v>
+        <v>0.001533011017576581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J12">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N12">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q12">
-        <v>11.51098664121178</v>
+        <v>27.11622033309511</v>
       </c>
       <c r="R12">
-        <v>103.598879770906</v>
+        <v>244.045982997856</v>
       </c>
       <c r="S12">
-        <v>0.005995076708033668</v>
+        <v>0.007824789326964062</v>
       </c>
       <c r="T12">
-        <v>0.005995076708033669</v>
+        <v>0.007824789326964062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.2481808363892573</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="J13">
-        <v>0.2481808363892574</v>
+        <v>0.1838014431832978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N13">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q13">
-        <v>13.22313493478178</v>
+        <v>9.156363107764889</v>
       </c>
       <c r="R13">
-        <v>119.008214413036</v>
+        <v>82.407267969884</v>
       </c>
       <c r="S13">
-        <v>0.006886786574043951</v>
+        <v>0.002642204976923061</v>
       </c>
       <c r="T13">
-        <v>0.006886786574043952</v>
+        <v>0.002642204976923061</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H14">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I14">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J14">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N14">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q14">
-        <v>103.5481212211911</v>
+        <v>249.5166796150045</v>
       </c>
       <c r="R14">
-        <v>931.9330909907198</v>
+        <v>2245.65011653504</v>
       </c>
       <c r="S14">
-        <v>0.05392925463672151</v>
+        <v>0.07200175494842444</v>
       </c>
       <c r="T14">
-        <v>0.05392925463672152</v>
+        <v>0.07200175494842444</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H15">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I15">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J15">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
         <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q15">
-        <v>1.884813046075555</v>
+        <v>3.279467795512889</v>
       </c>
       <c r="R15">
-        <v>16.96331741468</v>
+        <v>29.515210159616</v>
       </c>
       <c r="S15">
-        <v>0.0009816359920938999</v>
+        <v>0.0009463392865683574</v>
       </c>
       <c r="T15">
-        <v>0.0009816359920938999</v>
+        <v>0.0009463392865683574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H16">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I16">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J16">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N16">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q16">
-        <v>2.143066988891111</v>
+        <v>0.6341297755306666</v>
       </c>
       <c r="R16">
-        <v>19.28760290002</v>
+        <v>5.707167979776</v>
       </c>
       <c r="S16">
-        <v>0.001116138119981732</v>
+        <v>0.0001829875933493018</v>
       </c>
       <c r="T16">
-        <v>0.001116138119981733</v>
+        <v>0.0001829875933493018</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H17">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I17">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J17">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N17">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q17">
-        <v>2.953433693108888</v>
+        <v>2.261397878556445</v>
       </c>
       <c r="R17">
-        <v>26.58090323798</v>
+        <v>20.352580907008</v>
       </c>
       <c r="S17">
-        <v>0.001538188001963923</v>
+        <v>0.0006525600458612255</v>
       </c>
       <c r="T17">
-        <v>0.001538188001963923</v>
+        <v>0.0006525600458612254</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H18">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I18">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J18">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N18">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q18">
-        <v>2.816129761495555</v>
+        <v>11.54261892528356</v>
       </c>
       <c r="R18">
-        <v>25.34516785345999</v>
+        <v>103.883570327552</v>
       </c>
       <c r="S18">
-        <v>0.001466678267134634</v>
+        <v>0.003330794641078319</v>
       </c>
       <c r="T18">
-        <v>0.001466678267134634</v>
+        <v>0.003330794641078319</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.874993333333333</v>
+        <v>5.002325333333333</v>
       </c>
       <c r="H19">
-        <v>8.624979999999999</v>
+        <v>15.006976</v>
       </c>
       <c r="I19">
-        <v>0.06071672753805502</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="J19">
-        <v>0.06071672753805503</v>
+        <v>0.07823914950243377</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N19">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q19">
-        <v>3.235001915195555</v>
+        <v>3.897608471836444</v>
       </c>
       <c r="R19">
-        <v>29.11501723675999</v>
+        <v>35.078476246528</v>
       </c>
       <c r="S19">
-        <v>0.001684832520159327</v>
+        <v>0.001124712987152122</v>
       </c>
       <c r="T19">
-        <v>0.001684832520159327</v>
+        <v>0.001124712987152122</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H20">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J20">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N20">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q20">
-        <v>591.8189597365368</v>
+        <v>395.9177952980739</v>
       </c>
       <c r="R20">
-        <v>5326.370637628832</v>
+        <v>3563.260157682666</v>
       </c>
       <c r="S20">
-        <v>0.3082272763819075</v>
+        <v>0.1142479778135768</v>
       </c>
       <c r="T20">
-        <v>0.3082272763819076</v>
+        <v>0.1142479778135768</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H21">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J21">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
         <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q21">
-        <v>10.77246098790644</v>
+        <v>5.203658774851778</v>
       </c>
       <c r="R21">
-        <v>96.952148891158</v>
+        <v>46.83292897366601</v>
       </c>
       <c r="S21">
-        <v>0.005610442611894186</v>
+        <v>0.001501593258295209</v>
       </c>
       <c r="T21">
-        <v>0.005610442611894187</v>
+        <v>0.001501593258295209</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H22">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J22">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N22">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q22">
-        <v>12.24848564178189</v>
+        <v>1.006198315272333</v>
       </c>
       <c r="R22">
-        <v>110.236370776037</v>
+        <v>9.055784837451</v>
       </c>
       <c r="S22">
-        <v>0.006379176109616376</v>
+        <v>0.0002903535131901437</v>
       </c>
       <c r="T22">
-        <v>0.006379176109616379</v>
+        <v>0.0002903535131901437</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H23">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J23">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N23">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q23">
-        <v>16.88005571991811</v>
+        <v>3.588247742600889</v>
       </c>
       <c r="R23">
-        <v>151.920501479263</v>
+        <v>32.29422968340801</v>
       </c>
       <c r="S23">
-        <v>0.008791360118035755</v>
+        <v>0.001035442340189951</v>
       </c>
       <c r="T23">
-        <v>0.008791360118035756</v>
+        <v>0.001035442340189951</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H24">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J24">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N24">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q24">
-        <v>16.09530879243344</v>
+        <v>18.31512123323911</v>
       </c>
       <c r="R24">
-        <v>144.857779131901</v>
+        <v>164.836091099152</v>
       </c>
       <c r="S24">
-        <v>0.0083826533604568</v>
+        <v>0.005285101071884685</v>
       </c>
       <c r="T24">
-        <v>0.008382653360456802</v>
+        <v>0.005285101071884685</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.43173766666667</v>
+        <v>7.937383666666666</v>
       </c>
       <c r="H25">
-        <v>49.295213</v>
+        <v>23.812151</v>
       </c>
       <c r="I25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="J25">
-        <v>0.3470204008184817</v>
+        <v>0.1241450937259797</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N25">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q25">
-        <v>18.48933081177844</v>
+        <v>6.184486566130889</v>
       </c>
       <c r="R25">
-        <v>166.403977306006</v>
+        <v>55.660379095178</v>
       </c>
       <c r="S25">
-        <v>0.009629492236571077</v>
+        <v>0.001784625728842866</v>
       </c>
       <c r="T25">
-        <v>0.009629492236571079</v>
+        <v>0.001784625728842866</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H26">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J26">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N26">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q26">
-        <v>207.2834098572444</v>
+        <v>272.9263928841789</v>
       </c>
       <c r="R26">
-        <v>1865.5506887152</v>
+        <v>2456.33753595761</v>
       </c>
       <c r="S26">
-        <v>0.1079559885811964</v>
+        <v>0.07875697644632473</v>
       </c>
       <c r="T26">
-        <v>0.1079559885811964</v>
+        <v>0.07875697644632473</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H27">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J27">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
         <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q27">
-        <v>3.773032967922221</v>
+        <v>3.587148231493778</v>
       </c>
       <c r="R27">
-        <v>33.95729671129999</v>
+        <v>32.284334083444</v>
       </c>
       <c r="S27">
-        <v>0.001965046330924458</v>
+        <v>0.001035125059880596</v>
       </c>
       <c r="T27">
-        <v>0.001965046330924458</v>
+        <v>0.001035125059880597</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H28">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J28">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N28">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q28">
-        <v>4.290007657994444</v>
+        <v>0.6936239794593332</v>
       </c>
       <c r="R28">
-        <v>38.61006892195</v>
+        <v>6.242615815133999</v>
       </c>
       <c r="S28">
-        <v>0.002234293704733297</v>
+        <v>0.0002001555321770107</v>
       </c>
       <c r="T28">
-        <v>0.002234293704733298</v>
+        <v>0.0002001555321770107</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H29">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J29">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N29">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q29">
-        <v>5.912205837005555</v>
+        <v>2.473562756696889</v>
       </c>
       <c r="R29">
-        <v>53.20985253304999</v>
+        <v>22.262064810272</v>
       </c>
       <c r="S29">
-        <v>0.003079156340920004</v>
+        <v>0.0007137833820650469</v>
       </c>
       <c r="T29">
-        <v>0.003079156340920004</v>
+        <v>0.0007137833820650469</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H30">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J30">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N30">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q30">
-        <v>5.637349791372221</v>
+        <v>12.62555013386311</v>
       </c>
       <c r="R30">
-        <v>50.73614812234999</v>
+        <v>113.629951204768</v>
       </c>
       <c r="S30">
-        <v>0.002936007614525063</v>
+        <v>0.003643290573720801</v>
       </c>
       <c r="T30">
-        <v>0.002936007614525063</v>
+        <v>0.003643290573720802</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.755183333333332</v>
+        <v>5.471644666666666</v>
       </c>
       <c r="H31">
-        <v>17.26555</v>
+        <v>16.414934</v>
       </c>
       <c r="I31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696133</v>
       </c>
       <c r="J31">
-        <v>0.1215432030155045</v>
+        <v>0.08557956481696134</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N31">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q31">
-        <v>6.475851227122221</v>
+        <v>4.263283010716888</v>
       </c>
       <c r="R31">
-        <v>58.28266104409999</v>
+        <v>38.369547096452</v>
       </c>
       <c r="S31">
-        <v>0.003372710443205302</v>
+        <v>0.001230233822793142</v>
       </c>
       <c r="T31">
-        <v>0.003372710443205302</v>
+        <v>0.001230233822793142</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H32">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J32">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N32">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O32">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P32">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q32">
-        <v>57.65337449140622</v>
+        <v>962.5663256862481</v>
       </c>
       <c r="R32">
-        <v>518.8803704226559</v>
+        <v>8663.096931176231</v>
       </c>
       <c r="S32">
-        <v>0.03002665308597615</v>
+        <v>0.2777628526101101</v>
       </c>
       <c r="T32">
-        <v>0.03002665308597615</v>
+        <v>0.27776285261011</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H33">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J33">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N33">
         <v>1.966766</v>
       </c>
       <c r="O33">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P33">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q33">
-        <v>1.049423505807111</v>
+        <v>12.65127954974356</v>
       </c>
       <c r="R33">
-        <v>9.444811552263998</v>
+        <v>113.861515947692</v>
       </c>
       <c r="S33">
-        <v>0.0005465538804469454</v>
+        <v>0.003650715179963753</v>
       </c>
       <c r="T33">
-        <v>0.0005465538804469454</v>
+        <v>0.003650715179963753</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H34">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J34">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N34">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O34">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P34">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q34">
-        <v>1.193213765866222</v>
+        <v>2.446297253484667</v>
       </c>
       <c r="R34">
-        <v>10.738923892796</v>
+        <v>22.016675281362</v>
       </c>
       <c r="S34">
-        <v>0.0006214417823958728</v>
+        <v>0.0007059155149394462</v>
       </c>
       <c r="T34">
-        <v>0.0006214417823958729</v>
+        <v>0.0007059155149394463</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H35">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J35">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N35">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O35">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P35">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q35">
-        <v>1.644408577733778</v>
+        <v>8.72384744072178</v>
       </c>
       <c r="R35">
-        <v>14.799677199604</v>
+        <v>78.51462696649601</v>
       </c>
       <c r="S35">
-        <v>0.0008564301106533767</v>
+        <v>0.002517396138019613</v>
       </c>
       <c r="T35">
-        <v>0.0008564301106533767</v>
+        <v>0.002517396138019613</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H36">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J36">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N36">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O36">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P36">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q36">
-        <v>1.567960691523111</v>
+        <v>44.52823075735822</v>
       </c>
       <c r="R36">
-        <v>14.111646223708</v>
+        <v>400.754076816224</v>
       </c>
       <c r="S36">
-        <v>0.0008166150230084022</v>
+        <v>0.01284928432129315</v>
       </c>
       <c r="T36">
-        <v>0.0008166150230084022</v>
+        <v>0.01284928432129315</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.600734666666667</v>
+        <v>19.29758733333334</v>
       </c>
       <c r="H37">
-        <v>4.802204</v>
+        <v>57.892762</v>
       </c>
       <c r="I37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="J37">
-        <v>0.03380577251775169</v>
+        <v>0.3018249953372896</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N37">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O37">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P37">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q37">
-        <v>1.801179728783111</v>
+        <v>15.03589528158178</v>
       </c>
       <c r="R37">
-        <v>16.210617559048</v>
+        <v>135.323057534236</v>
       </c>
       <c r="S37">
-        <v>0.0009380786352709456</v>
+        <v>0.004338831572963593</v>
       </c>
       <c r="T37">
-        <v>0.0009380786352709456</v>
+        <v>0.004338831572963593</v>
       </c>
     </row>
   </sheetData>
